--- a/docs/external/plans/PROTOKOL.xlsx
+++ b/docs/external/plans/PROTOKOL.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>пп</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>иерархичные марки</t>
+  </si>
+  <si>
+    <t>предложение отменить AI</t>
+  </si>
+  <si>
+    <t>Ответы на вопросы по матмодели объектов производства (со встречи с Андреем)</t>
+  </si>
+  <si>
+    <t>Ответы на вопросы по матмодели по сырцу (со встречи с Андреем)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>предоставить расписание использования системы (I.E. 10-го числа запускают для …; 15-го числа запускают для ...)</t>
   </si>
 </sst>
 </file>
@@ -623,10 +638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1268,32 +1283,86 @@
       <c r="G27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="5">
-        <v>41611</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5">
-        <v>41614</v>
-      </c>
-      <c r="F28" s="5">
-        <v>41614</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5">
+        <v>41611</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="5">
+        <v>41614</v>
+      </c>
+      <c r="F30" s="5">
+        <v>41614</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H28">
+  <autoFilter ref="A1:H30">
     <filterColumn colId="6">
       <filters>
         <filter val="в процессе"/>
